--- a/Arquivos/Dataset/termos_Concelho.xlsx
+++ b/Arquivos/Dataset/termos_Concelho.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\Projectos\UPskill\Projecto Power\GymTrend-Task-Force\Arquivos\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projeto PP\GymTrend-Task-Force\Arquivos\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04A1538C-FB41-4355-9AA0-DF709B60DB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A46965-0E41-48BA-B4B6-47DFBB20CEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5E34A085-28B9-4C2F-B6B4-95072BA85716}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E34A085-28B9-4C2F-B6B4-95072BA85716}"/>
   </bookViews>
   <sheets>
     <sheet name="geoMap_ginasios" sheetId="2" r:id="rId1"/>
@@ -391,9 +391,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,6 +432,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A195936-3802-4C35-B43F-EA489C118242}" name="geoMap_ginasios" displayName="geoMap_ginasios" ref="A1:C385" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C385" xr:uid="{7A195936-3802-4C35-B43F-EA489C118242}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C385">
+    <sortCondition descending="1" ref="C1:C385"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A9E2DA8B-F642-49DB-ADE4-156FEEA4D67D}" uniqueName="1" name="Cidade" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{83BC657E-796D-48A2-8356-8C85D6F64279}" uniqueName="2" name="Atributo" queryTableFieldId="2" dataDxfId="0"/>
@@ -741,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC44209-7355-4A65-9607-267A54FB324D}">
   <dimension ref="A1:C385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,10 +766,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
@@ -775,43 +777,43 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0.28999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -819,43 +821,43 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
@@ -863,43 +865,43 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
@@ -907,747 +909,747 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>25</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>7</v>
+      <c r="B81" t="s">
+        <v>6</v>
       </c>
       <c r="C81">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="C82">
@@ -1655,10 +1657,10 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>5</v>
       </c>
       <c r="C83">
@@ -1666,10 +1668,10 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>27</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84">
@@ -1677,10 +1679,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>27</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="C85">
@@ -1688,10 +1690,10 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>28</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>4</v>
       </c>
       <c r="C86">
@@ -1699,10 +1701,10 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87">
@@ -1710,10 +1712,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>6</v>
       </c>
       <c r="C88">
@@ -1721,10 +1723,10 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89">
@@ -1732,10 +1734,10 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>4</v>
       </c>
       <c r="C90">
@@ -1743,10 +1745,10 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>29</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91">
@@ -1754,10 +1756,10 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92">
@@ -1765,10 +1767,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>29</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>7</v>
       </c>
       <c r="C93">
@@ -1776,10 +1778,10 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>30</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>4</v>
       </c>
       <c r="C94">
@@ -1787,10 +1789,10 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>30</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95">
@@ -1798,10 +1800,10 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>30</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96">
@@ -1809,10 +1811,10 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>30</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97">
@@ -1820,10 +1822,10 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>4</v>
       </c>
       <c r="C98">
@@ -1831,10 +1833,10 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>31</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99">
@@ -1842,10 +1844,10 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>31</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100">
@@ -1853,10 +1855,10 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>31</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101">
@@ -1864,10 +1866,10 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>32</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>4</v>
       </c>
       <c r="C102">
@@ -1875,10 +1877,10 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>32</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>5</v>
       </c>
       <c r="C103">
@@ -1886,10 +1888,10 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>32</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104">
@@ -1897,10 +1899,10 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>32</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105">
@@ -1908,10 +1910,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>33</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>4</v>
       </c>
       <c r="C106">
@@ -1919,10 +1921,10 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>33</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>5</v>
       </c>
       <c r="C107">
@@ -1930,10 +1932,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>33</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108">
@@ -1941,10 +1943,10 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>33</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109">
@@ -1952,10 +1954,10 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>34</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
         <v>4</v>
       </c>
       <c r="C110">
@@ -1963,10 +1965,10 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>34</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>5</v>
       </c>
       <c r="C111">
@@ -1974,10 +1976,10 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>34</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112">
@@ -1985,10 +1987,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>34</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113">
@@ -1996,10 +1998,10 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>35</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
         <v>4</v>
       </c>
       <c r="C114">
@@ -2007,10 +2009,10 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>35</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>5</v>
       </c>
       <c r="C115">
@@ -2018,10 +2020,10 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>35</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116">
@@ -2029,10 +2031,10 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>35</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117">
@@ -2040,10 +2042,10 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>36</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="s">
         <v>4</v>
       </c>
       <c r="C118">
@@ -2051,10 +2053,10 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>36</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s">
         <v>5</v>
       </c>
       <c r="C119">
@@ -2062,10 +2064,10 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>36</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
         <v>6</v>
       </c>
       <c r="C120">
@@ -2073,10 +2075,10 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>36</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121">
@@ -2084,10 +2086,10 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>37</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" t="s">
         <v>4</v>
       </c>
       <c r="C122">
@@ -2095,10 +2097,10 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>37</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" t="s">
         <v>5</v>
       </c>
       <c r="C123">
@@ -2106,10 +2108,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>37</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="C124">
@@ -2117,10 +2119,10 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>37</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" t="s">
         <v>7</v>
       </c>
       <c r="C125">
@@ -2128,10 +2130,10 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>38</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" t="s">
         <v>4</v>
       </c>
       <c r="C126">
@@ -2139,10 +2141,10 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>38</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" t="s">
         <v>5</v>
       </c>
       <c r="C127">
@@ -2150,10 +2152,10 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>38</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128">
@@ -2161,10 +2163,10 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>38</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129">
@@ -2172,10 +2174,10 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>39</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" t="s">
         <v>4</v>
       </c>
       <c r="C130">
@@ -2183,10 +2185,10 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>39</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" t="s">
         <v>5</v>
       </c>
       <c r="C131">
@@ -2194,10 +2196,10 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>39</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" t="s">
         <v>6</v>
       </c>
       <c r="C132">
@@ -2205,10 +2207,10 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>39</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133">
@@ -2216,10 +2218,10 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>40</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" t="s">
         <v>4</v>
       </c>
       <c r="C134">
@@ -2227,10 +2229,10 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>40</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" t="s">
         <v>5</v>
       </c>
       <c r="C135">
@@ -2238,10 +2240,10 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>40</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136">
@@ -2249,10 +2251,10 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>40</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137">
@@ -2260,10 +2262,10 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>41</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" t="s">
         <v>4</v>
       </c>
       <c r="C138">
@@ -2271,10 +2273,10 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>41</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" t="s">
         <v>5</v>
       </c>
       <c r="C139">
@@ -2282,10 +2284,10 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>41</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" t="s">
         <v>6</v>
       </c>
       <c r="C140">
@@ -2293,10 +2295,10 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>41</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141">
@@ -2304,10 +2306,10 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>42</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" t="s">
         <v>4</v>
       </c>
       <c r="C142">
@@ -2315,10 +2317,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>42</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" t="s">
         <v>5</v>
       </c>
       <c r="C143">
@@ -2326,10 +2328,10 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>42</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" t="s">
         <v>6</v>
       </c>
       <c r="C144">
@@ -2337,10 +2339,10 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>42</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145">
@@ -2348,10 +2350,10 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>43</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" t="s">
         <v>4</v>
       </c>
       <c r="C146">
@@ -2359,10 +2361,10 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>43</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" t="s">
         <v>5</v>
       </c>
       <c r="C147">
@@ -2370,10 +2372,10 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>43</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" t="s">
         <v>6</v>
       </c>
       <c r="C148">
@@ -2381,10 +2383,10 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>43</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149">
@@ -2392,10 +2394,10 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>44</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" t="s">
         <v>4</v>
       </c>
       <c r="C150">
@@ -2403,10 +2405,10 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>44</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151">
@@ -2414,10 +2416,10 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>44</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" t="s">
         <v>6</v>
       </c>
       <c r="C152">
@@ -2425,10 +2427,10 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>44</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" t="s">
         <v>7</v>
       </c>
       <c r="C153">
@@ -2436,10 +2438,10 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>45</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" t="s">
         <v>4</v>
       </c>
       <c r="C154">
@@ -2447,10 +2449,10 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>45</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" t="s">
         <v>5</v>
       </c>
       <c r="C155">
@@ -2458,10 +2460,10 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>45</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" t="s">
         <v>6</v>
       </c>
       <c r="C156">
@@ -2469,10 +2471,10 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>45</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" t="s">
         <v>7</v>
       </c>
       <c r="C157">
@@ -2480,10 +2482,10 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>46</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" t="s">
         <v>4</v>
       </c>
       <c r="C158">
@@ -2491,10 +2493,10 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>46</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" t="s">
         <v>5</v>
       </c>
       <c r="C159">
@@ -2502,10 +2504,10 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>46</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" t="s">
         <v>6</v>
       </c>
       <c r="C160">
@@ -2513,10 +2515,10 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>46</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" t="s">
         <v>7</v>
       </c>
       <c r="C161">
@@ -2524,10 +2526,10 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>47</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" t="s">
         <v>4</v>
       </c>
       <c r="C162">
@@ -2535,10 +2537,10 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>47</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" t="s">
         <v>5</v>
       </c>
       <c r="C163">
@@ -2546,10 +2548,10 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
         <v>47</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" t="s">
         <v>6</v>
       </c>
       <c r="C164">
@@ -2557,10 +2559,10 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+      <c r="A165" t="s">
         <v>47</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" t="s">
         <v>7</v>
       </c>
       <c r="C165">
@@ -2568,10 +2570,10 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>48</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" t="s">
         <v>4</v>
       </c>
       <c r="C166">
@@ -2579,10 +2581,10 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+      <c r="A167" t="s">
         <v>48</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" t="s">
         <v>5</v>
       </c>
       <c r="C167">
@@ -2590,10 +2592,10 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+      <c r="A168" t="s">
         <v>48</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" t="s">
         <v>6</v>
       </c>
       <c r="C168">
@@ -2601,10 +2603,10 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+      <c r="A169" t="s">
         <v>48</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" t="s">
         <v>7</v>
       </c>
       <c r="C169">
@@ -2612,10 +2614,10 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+      <c r="A170" t="s">
         <v>49</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" t="s">
         <v>4</v>
       </c>
       <c r="C170">
@@ -2623,10 +2625,10 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+      <c r="A171" t="s">
         <v>49</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" t="s">
         <v>5</v>
       </c>
       <c r="C171">
@@ -2634,10 +2636,10 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+      <c r="A172" t="s">
         <v>49</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" t="s">
         <v>6</v>
       </c>
       <c r="C172">
@@ -2645,10 +2647,10 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
         <v>49</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" t="s">
         <v>7</v>
       </c>
       <c r="C173">
@@ -2656,10 +2658,10 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+      <c r="A174" t="s">
         <v>50</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" t="s">
         <v>4</v>
       </c>
       <c r="C174">
@@ -2667,10 +2669,10 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>50</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" t="s">
         <v>5</v>
       </c>
       <c r="C175">
@@ -2678,10 +2680,10 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>50</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" t="s">
         <v>6</v>
       </c>
       <c r="C176">
@@ -2689,10 +2691,10 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+      <c r="A177" t="s">
         <v>50</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" t="s">
         <v>7</v>
       </c>
       <c r="C177">
@@ -2700,10 +2702,10 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+      <c r="A178" t="s">
         <v>51</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" t="s">
         <v>4</v>
       </c>
       <c r="C178">
@@ -2711,10 +2713,10 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+      <c r="A179" t="s">
         <v>51</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" t="s">
         <v>5</v>
       </c>
       <c r="C179">
@@ -2722,10 +2724,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+      <c r="A180" t="s">
         <v>51</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" t="s">
         <v>6</v>
       </c>
       <c r="C180">
@@ -2733,10 +2735,10 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+      <c r="A181" t="s">
         <v>51</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" t="s">
         <v>7</v>
       </c>
       <c r="C181">
@@ -2744,10 +2746,10 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+      <c r="A182" t="s">
         <v>52</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" t="s">
         <v>4</v>
       </c>
       <c r="C182">
@@ -2755,10 +2757,10 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+      <c r="A183" t="s">
         <v>52</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" t="s">
         <v>5</v>
       </c>
       <c r="C183">
@@ -2766,10 +2768,10 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+      <c r="A184" t="s">
         <v>52</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" t="s">
         <v>6</v>
       </c>
       <c r="C184">
@@ -2777,10 +2779,10 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+      <c r="A185" t="s">
         <v>52</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" t="s">
         <v>7</v>
       </c>
       <c r="C185">
@@ -2788,10 +2790,10 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+      <c r="A186" t="s">
         <v>53</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" t="s">
         <v>4</v>
       </c>
       <c r="C186">
@@ -2799,10 +2801,10 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+      <c r="A187" t="s">
         <v>53</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" t="s">
         <v>5</v>
       </c>
       <c r="C187">
@@ -2810,10 +2812,10 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+      <c r="A188" t="s">
         <v>53</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" t="s">
         <v>6</v>
       </c>
       <c r="C188">
@@ -2821,10 +2823,10 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+      <c r="A189" t="s">
         <v>53</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" t="s">
         <v>7</v>
       </c>
       <c r="C189">
@@ -2832,10 +2834,10 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+      <c r="A190" t="s">
         <v>54</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" t="s">
         <v>4</v>
       </c>
       <c r="C190">
@@ -2843,10 +2845,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+      <c r="A191" t="s">
         <v>54</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" t="s">
         <v>5</v>
       </c>
       <c r="C191">
@@ -2854,10 +2856,10 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+      <c r="A192" t="s">
         <v>54</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" t="s">
         <v>6</v>
       </c>
       <c r="C192">
@@ -2865,10 +2867,10 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+      <c r="A193" t="s">
         <v>54</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" t="s">
         <v>7</v>
       </c>
       <c r="C193">
@@ -2876,10 +2878,10 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+      <c r="A194" t="s">
         <v>55</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" t="s">
         <v>4</v>
       </c>
       <c r="C194">
@@ -2887,10 +2889,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+      <c r="A195" t="s">
         <v>55</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" t="s">
         <v>5</v>
       </c>
       <c r="C195">
@@ -2898,10 +2900,10 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+      <c r="A196" t="s">
         <v>55</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" t="s">
         <v>6</v>
       </c>
       <c r="C196">
@@ -2909,10 +2911,10 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
+      <c r="A197" t="s">
         <v>55</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" t="s">
         <v>7</v>
       </c>
       <c r="C197">
@@ -2920,10 +2922,10 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+      <c r="A198" t="s">
         <v>56</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" t="s">
         <v>4</v>
       </c>
       <c r="C198">
@@ -2931,10 +2933,10 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+      <c r="A199" t="s">
         <v>56</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199">
@@ -2942,10 +2944,10 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
+      <c r="A200" t="s">
         <v>56</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" t="s">
         <v>6</v>
       </c>
       <c r="C200">
@@ -2953,10 +2955,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+      <c r="A201" t="s">
         <v>56</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" t="s">
         <v>7</v>
       </c>
       <c r="C201">
@@ -2964,10 +2966,10 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
+      <c r="A202" t="s">
         <v>57</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" t="s">
         <v>4</v>
       </c>
       <c r="C202">
@@ -2975,10 +2977,10 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+      <c r="A203" t="s">
         <v>57</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" t="s">
         <v>5</v>
       </c>
       <c r="C203">
@@ -2986,10 +2988,10 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+      <c r="A204" t="s">
         <v>57</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" t="s">
         <v>6</v>
       </c>
       <c r="C204">
@@ -2997,10 +2999,10 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
+      <c r="A205" t="s">
         <v>57</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" t="s">
         <v>7</v>
       </c>
       <c r="C205">
@@ -3008,10 +3010,10 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
+      <c r="A206" t="s">
         <v>58</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" t="s">
         <v>4</v>
       </c>
       <c r="C206">
@@ -3019,10 +3021,10 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+      <c r="A207" t="s">
         <v>58</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" t="s">
         <v>5</v>
       </c>
       <c r="C207">
@@ -3030,10 +3032,10 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
+      <c r="A208" t="s">
         <v>58</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" t="s">
         <v>6</v>
       </c>
       <c r="C208">
@@ -3041,10 +3043,10 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+      <c r="A209" t="s">
         <v>58</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" t="s">
         <v>7</v>
       </c>
       <c r="C209">
@@ -3052,10 +3054,10 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
+      <c r="A210" t="s">
         <v>59</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" t="s">
         <v>4</v>
       </c>
       <c r="C210">
@@ -3063,10 +3065,10 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
+      <c r="A211" t="s">
         <v>59</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" t="s">
         <v>5</v>
       </c>
       <c r="C211">
@@ -3074,10 +3076,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
+      <c r="A212" t="s">
         <v>59</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" t="s">
         <v>6</v>
       </c>
       <c r="C212">
@@ -3085,10 +3087,10 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+      <c r="A213" t="s">
         <v>59</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" t="s">
         <v>7</v>
       </c>
       <c r="C213">
@@ -3096,10 +3098,10 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
+      <c r="A214" t="s">
         <v>60</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" t="s">
         <v>4</v>
       </c>
       <c r="C214">
@@ -3107,10 +3109,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+      <c r="A215" t="s">
         <v>60</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" t="s">
         <v>5</v>
       </c>
       <c r="C215">
@@ -3118,10 +3120,10 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+      <c r="A216" t="s">
         <v>60</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" t="s">
         <v>6</v>
       </c>
       <c r="C216">
@@ -3129,10 +3131,10 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
+      <c r="A217" t="s">
         <v>60</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" t="s">
         <v>7</v>
       </c>
       <c r="C217">
@@ -3140,10 +3142,10 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
+      <c r="A218" t="s">
         <v>61</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" t="s">
         <v>4</v>
       </c>
       <c r="C218">
@@ -3151,10 +3153,10 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+      <c r="A219" t="s">
         <v>61</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" t="s">
         <v>5</v>
       </c>
       <c r="C219">
@@ -3162,10 +3164,10 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
+      <c r="A220" t="s">
         <v>61</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" t="s">
         <v>6</v>
       </c>
       <c r="C220">
@@ -3173,10 +3175,10 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+      <c r="A221" t="s">
         <v>61</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" t="s">
         <v>7</v>
       </c>
       <c r="C221">
@@ -3184,10 +3186,10 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+      <c r="A222" t="s">
         <v>62</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" t="s">
         <v>4</v>
       </c>
       <c r="C222">
@@ -3195,10 +3197,10 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
+      <c r="A223" t="s">
         <v>62</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" t="s">
         <v>5</v>
       </c>
       <c r="C223">
@@ -3206,10 +3208,10 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+      <c r="A224" t="s">
         <v>62</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" t="s">
         <v>6</v>
       </c>
       <c r="C224">
@@ -3217,10 +3219,10 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+      <c r="A225" t="s">
         <v>62</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" t="s">
         <v>7</v>
       </c>
       <c r="C225">
@@ -3228,10 +3230,10 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+      <c r="A226" t="s">
         <v>63</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" t="s">
         <v>4</v>
       </c>
       <c r="C226">
@@ -3239,10 +3241,10 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
+      <c r="A227" t="s">
         <v>63</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227">
@@ -3250,10 +3252,10 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+      <c r="A228" t="s">
         <v>63</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" t="s">
         <v>6</v>
       </c>
       <c r="C228">
@@ -3261,10 +3263,10 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
+      <c r="A229" t="s">
         <v>63</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" t="s">
         <v>7</v>
       </c>
       <c r="C229">
@@ -3272,10 +3274,10 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
+      <c r="A230" t="s">
         <v>64</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" t="s">
         <v>4</v>
       </c>
       <c r="C230">
@@ -3283,10 +3285,10 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+      <c r="A231" t="s">
         <v>64</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" t="s">
         <v>5</v>
       </c>
       <c r="C231">
@@ -3294,10 +3296,10 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+      <c r="A232" t="s">
         <v>64</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" t="s">
         <v>6</v>
       </c>
       <c r="C232">
@@ -3305,10 +3307,10 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
+      <c r="A233" t="s">
         <v>64</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" t="s">
         <v>7</v>
       </c>
       <c r="C233">
@@ -3316,10 +3318,10 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+      <c r="A234" t="s">
         <v>65</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" t="s">
         <v>4</v>
       </c>
       <c r="C234">
@@ -3327,10 +3329,10 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
+      <c r="A235" t="s">
         <v>65</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" t="s">
         <v>5</v>
       </c>
       <c r="C235">
@@ -3338,10 +3340,10 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
+      <c r="A236" t="s">
         <v>65</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" t="s">
         <v>6</v>
       </c>
       <c r="C236">
@@ -3349,10 +3351,10 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
+      <c r="A237" t="s">
         <v>65</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" t="s">
         <v>7</v>
       </c>
       <c r="C237">
@@ -3360,10 +3362,10 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
+      <c r="A238" t="s">
         <v>66</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" t="s">
         <v>4</v>
       </c>
       <c r="C238">
@@ -3371,10 +3373,10 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+      <c r="A239" t="s">
         <v>66</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" t="s">
         <v>5</v>
       </c>
       <c r="C239">
@@ -3382,10 +3384,10 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+      <c r="A240" t="s">
         <v>66</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" t="s">
         <v>6</v>
       </c>
       <c r="C240">
@@ -3393,10 +3395,10 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+      <c r="A241" t="s">
         <v>66</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" t="s">
         <v>7</v>
       </c>
       <c r="C241">
@@ -3404,10 +3406,10 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
+      <c r="A242" t="s">
         <v>67</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" t="s">
         <v>4</v>
       </c>
       <c r="C242">
@@ -3415,10 +3417,10 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
+      <c r="A243" t="s">
         <v>67</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" t="s">
         <v>5</v>
       </c>
       <c r="C243">
@@ -3426,10 +3428,10 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+      <c r="A244" t="s">
         <v>67</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" t="s">
         <v>6</v>
       </c>
       <c r="C244">
@@ -3437,10 +3439,10 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+      <c r="A245" t="s">
         <v>67</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" t="s">
         <v>7</v>
       </c>
       <c r="C245">
@@ -3448,10 +3450,10 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+      <c r="A246" t="s">
         <v>68</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" t="s">
         <v>4</v>
       </c>
       <c r="C246">
@@ -3459,10 +3461,10 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+      <c r="A247" t="s">
         <v>68</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B247" t="s">
         <v>5</v>
       </c>
       <c r="C247">
@@ -3470,10 +3472,10 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+      <c r="A248" t="s">
         <v>68</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" t="s">
         <v>6</v>
       </c>
       <c r="C248">
@@ -3481,10 +3483,10 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
+      <c r="A249" t="s">
         <v>68</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" t="s">
         <v>7</v>
       </c>
       <c r="C249">
@@ -3492,10 +3494,10 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
+      <c r="A250" t="s">
         <v>69</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" t="s">
         <v>4</v>
       </c>
       <c r="C250">
@@ -3503,10 +3505,10 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
+      <c r="A251" t="s">
         <v>69</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" t="s">
         <v>5</v>
       </c>
       <c r="C251">
@@ -3514,10 +3516,10 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
+      <c r="A252" t="s">
         <v>69</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B252" t="s">
         <v>6</v>
       </c>
       <c r="C252">
@@ -3525,10 +3527,10 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
+      <c r="A253" t="s">
         <v>69</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B253" t="s">
         <v>7</v>
       </c>
       <c r="C253">
@@ -3536,10 +3538,10 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
+      <c r="A254" t="s">
         <v>70</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B254" t="s">
         <v>4</v>
       </c>
       <c r="C254">
@@ -3547,10 +3549,10 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
+      <c r="A255" t="s">
         <v>70</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B255" t="s">
         <v>5</v>
       </c>
       <c r="C255">
@@ -3558,10 +3560,10 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
+      <c r="A256" t="s">
         <v>70</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B256" t="s">
         <v>6</v>
       </c>
       <c r="C256">
@@ -3569,10 +3571,10 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
+      <c r="A257" t="s">
         <v>70</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B257" t="s">
         <v>7</v>
       </c>
       <c r="C257">
@@ -3580,10 +3582,10 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
+      <c r="A258" t="s">
         <v>71</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" t="s">
         <v>4</v>
       </c>
       <c r="C258">
@@ -3591,10 +3593,10 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
+      <c r="A259" t="s">
         <v>71</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B259" t="s">
         <v>5</v>
       </c>
       <c r="C259">
@@ -3602,10 +3604,10 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
+      <c r="A260" t="s">
         <v>71</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" t="s">
         <v>6</v>
       </c>
       <c r="C260">
@@ -3613,10 +3615,10 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
+      <c r="A261" t="s">
         <v>71</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B261" t="s">
         <v>7</v>
       </c>
       <c r="C261">
@@ -3624,10 +3626,10 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
+      <c r="A262" t="s">
         <v>72</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B262" t="s">
         <v>4</v>
       </c>
       <c r="C262">
@@ -3635,10 +3637,10 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
+      <c r="A263" t="s">
         <v>72</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" t="s">
         <v>5</v>
       </c>
       <c r="C263">
@@ -3646,10 +3648,10 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
+      <c r="A264" t="s">
         <v>72</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B264" t="s">
         <v>6</v>
       </c>
       <c r="C264">
@@ -3657,10 +3659,10 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
+      <c r="A265" t="s">
         <v>72</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B265" t="s">
         <v>7</v>
       </c>
       <c r="C265">
@@ -3668,10 +3670,10 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
+      <c r="A266" t="s">
         <v>73</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B266" t="s">
         <v>4</v>
       </c>
       <c r="C266">
@@ -3679,10 +3681,10 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
+      <c r="A267" t="s">
         <v>73</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B267" t="s">
         <v>5</v>
       </c>
       <c r="C267">
@@ -3690,10 +3692,10 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
+      <c r="A268" t="s">
         <v>73</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B268" t="s">
         <v>6</v>
       </c>
       <c r="C268">
@@ -3701,10 +3703,10 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
+      <c r="A269" t="s">
         <v>73</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B269" t="s">
         <v>7</v>
       </c>
       <c r="C269">
@@ -3712,10 +3714,10 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
+      <c r="A270" t="s">
         <v>74</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B270" t="s">
         <v>4</v>
       </c>
       <c r="C270">
@@ -3723,10 +3725,10 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
+      <c r="A271" t="s">
         <v>74</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B271" t="s">
         <v>5</v>
       </c>
       <c r="C271">
@@ -3734,10 +3736,10 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
+      <c r="A272" t="s">
         <v>74</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B272" t="s">
         <v>6</v>
       </c>
       <c r="C272">
@@ -3745,10 +3747,10 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
+      <c r="A273" t="s">
         <v>74</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="B273" t="s">
         <v>7</v>
       </c>
       <c r="C273">
@@ -3756,10 +3758,10 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
+      <c r="A274" t="s">
         <v>75</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B274" t="s">
         <v>4</v>
       </c>
       <c r="C274">
@@ -3767,10 +3769,10 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
+      <c r="A275" t="s">
         <v>75</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B275" t="s">
         <v>5</v>
       </c>
       <c r="C275">
@@ -3778,10 +3780,10 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+      <c r="A276" t="s">
         <v>75</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="B276" t="s">
         <v>6</v>
       </c>
       <c r="C276">
@@ -3789,10 +3791,10 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
+      <c r="A277" t="s">
         <v>75</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B277" t="s">
         <v>7</v>
       </c>
       <c r="C277">
@@ -3800,10 +3802,10 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
+      <c r="A278" t="s">
         <v>76</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="B278" t="s">
         <v>4</v>
       </c>
       <c r="C278">
@@ -3811,10 +3813,10 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
+      <c r="A279" t="s">
         <v>76</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B279" t="s">
         <v>5</v>
       </c>
       <c r="C279">
@@ -3822,10 +3824,10 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
+      <c r="A280" t="s">
         <v>76</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="B280" t="s">
         <v>6</v>
       </c>
       <c r="C280">
@@ -3833,10 +3835,10 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
+      <c r="A281" t="s">
         <v>76</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B281" t="s">
         <v>7</v>
       </c>
       <c r="C281">
@@ -3844,10 +3846,10 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
+      <c r="A282" t="s">
         <v>77</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B282" t="s">
         <v>4</v>
       </c>
       <c r="C282">
@@ -3855,10 +3857,10 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
+      <c r="A283" t="s">
         <v>77</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B283" t="s">
         <v>5</v>
       </c>
       <c r="C283">
@@ -3866,10 +3868,10 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
+      <c r="A284" t="s">
         <v>77</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B284" t="s">
         <v>6</v>
       </c>
       <c r="C284">
@@ -3877,10 +3879,10 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="1" t="s">
+      <c r="A285" t="s">
         <v>77</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B285" t="s">
         <v>7</v>
       </c>
       <c r="C285">
@@ -3888,10 +3890,10 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
+      <c r="A286" t="s">
         <v>78</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="B286" t="s">
         <v>4</v>
       </c>
       <c r="C286">
@@ -3899,10 +3901,10 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
+      <c r="A287" t="s">
         <v>78</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B287" t="s">
         <v>5</v>
       </c>
       <c r="C287">
@@ -3910,10 +3912,10 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
+      <c r="A288" t="s">
         <v>78</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B288" t="s">
         <v>6</v>
       </c>
       <c r="C288">
@@ -3921,10 +3923,10 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
+      <c r="A289" t="s">
         <v>78</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B289" t="s">
         <v>7</v>
       </c>
       <c r="C289">
@@ -3932,10 +3934,10 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
+      <c r="A290" t="s">
         <v>79</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B290" t="s">
         <v>4</v>
       </c>
       <c r="C290">
@@ -3943,10 +3945,10 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="1" t="s">
+      <c r="A291" t="s">
         <v>79</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B291" t="s">
         <v>5</v>
       </c>
       <c r="C291">
@@ -3954,10 +3956,10 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="1" t="s">
+      <c r="A292" t="s">
         <v>79</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B292" t="s">
         <v>6</v>
       </c>
       <c r="C292">
@@ -3965,10 +3967,10 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="1" t="s">
+      <c r="A293" t="s">
         <v>79</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="B293" t="s">
         <v>7</v>
       </c>
       <c r="C293">
@@ -3976,10 +3978,10 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
+      <c r="A294" t="s">
         <v>80</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="B294" t="s">
         <v>4</v>
       </c>
       <c r="C294">
@@ -3987,10 +3989,10 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
+      <c r="A295" t="s">
         <v>80</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B295" t="s">
         <v>5</v>
       </c>
       <c r="C295">
@@ -3998,10 +4000,10 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="1" t="s">
+      <c r="A296" t="s">
         <v>80</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B296" t="s">
         <v>6</v>
       </c>
       <c r="C296">
@@ -4009,10 +4011,10 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="1" t="s">
+      <c r="A297" t="s">
         <v>80</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B297" t="s">
         <v>7</v>
       </c>
       <c r="C297">
@@ -4020,10 +4022,10 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
+      <c r="A298" t="s">
         <v>81</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B298" t="s">
         <v>4</v>
       </c>
       <c r="C298">
@@ -4031,10 +4033,10 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
+      <c r="A299" t="s">
         <v>81</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B299" t="s">
         <v>5</v>
       </c>
       <c r="C299">
@@ -4042,10 +4044,10 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
+      <c r="A300" t="s">
         <v>81</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B300" t="s">
         <v>6</v>
       </c>
       <c r="C300">
@@ -4053,10 +4055,10 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="1" t="s">
+      <c r="A301" t="s">
         <v>81</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B301" t="s">
         <v>7</v>
       </c>
       <c r="C301">
@@ -4064,10 +4066,10 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
+      <c r="A302" t="s">
         <v>82</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B302" t="s">
         <v>4</v>
       </c>
       <c r="C302">
@@ -4075,10 +4077,10 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="1" t="s">
+      <c r="A303" t="s">
         <v>82</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B303" t="s">
         <v>5</v>
       </c>
       <c r="C303">
@@ -4086,10 +4088,10 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
+      <c r="A304" t="s">
         <v>82</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B304" t="s">
         <v>6</v>
       </c>
       <c r="C304">
@@ -4097,10 +4099,10 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
+      <c r="A305" t="s">
         <v>82</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B305" t="s">
         <v>7</v>
       </c>
       <c r="C305">
@@ -4108,10 +4110,10 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
+      <c r="A306" t="s">
         <v>83</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="B306" t="s">
         <v>4</v>
       </c>
       <c r="C306">
@@ -4119,10 +4121,10 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="1" t="s">
+      <c r="A307" t="s">
         <v>83</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="B307" t="s">
         <v>5</v>
       </c>
       <c r="C307">
@@ -4130,10 +4132,10 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
+      <c r="A308" t="s">
         <v>83</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B308" t="s">
         <v>6</v>
       </c>
       <c r="C308">
@@ -4141,10 +4143,10 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
+      <c r="A309" t="s">
         <v>83</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B309" t="s">
         <v>7</v>
       </c>
       <c r="C309">
@@ -4152,10 +4154,10 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
+      <c r="A310" t="s">
         <v>84</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B310" t="s">
         <v>4</v>
       </c>
       <c r="C310">
@@ -4163,10 +4165,10 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
+      <c r="A311" t="s">
         <v>84</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="B311" t="s">
         <v>5</v>
       </c>
       <c r="C311">
@@ -4174,10 +4176,10 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
+      <c r="A312" t="s">
         <v>84</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="B312" t="s">
         <v>6</v>
       </c>
       <c r="C312">
@@ -4185,10 +4187,10 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="1" t="s">
+      <c r="A313" t="s">
         <v>84</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B313" t="s">
         <v>7</v>
       </c>
       <c r="C313">
@@ -4196,10 +4198,10 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
+      <c r="A314" t="s">
         <v>85</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="B314" t="s">
         <v>4</v>
       </c>
       <c r="C314">
@@ -4207,10 +4209,10 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="1" t="s">
+      <c r="A315" t="s">
         <v>85</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="B315" t="s">
         <v>5</v>
       </c>
       <c r="C315">
@@ -4218,10 +4220,10 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
+      <c r="A316" t="s">
         <v>85</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="B316" t="s">
         <v>6</v>
       </c>
       <c r="C316">
@@ -4229,10 +4231,10 @@
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
+      <c r="A317" t="s">
         <v>85</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B317" t="s">
         <v>7</v>
       </c>
       <c r="C317">
@@ -4240,10 +4242,10 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
+      <c r="A318" t="s">
         <v>86</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B318" t="s">
         <v>4</v>
       </c>
       <c r="C318">
@@ -4251,10 +4253,10 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
+      <c r="A319" t="s">
         <v>86</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B319" t="s">
         <v>5</v>
       </c>
       <c r="C319">
@@ -4262,10 +4264,10 @@
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
+      <c r="A320" t="s">
         <v>86</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="B320" t="s">
         <v>6</v>
       </c>
       <c r="C320">
@@ -4273,10 +4275,10 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
+      <c r="A321" t="s">
         <v>86</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="B321" t="s">
         <v>7</v>
       </c>
       <c r="C321">
@@ -4284,10 +4286,10 @@
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
+      <c r="A322" t="s">
         <v>87</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="B322" t="s">
         <v>4</v>
       </c>
       <c r="C322">
@@ -4295,10 +4297,10 @@
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
+      <c r="A323" t="s">
         <v>87</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B323" t="s">
         <v>5</v>
       </c>
       <c r="C323">
@@ -4306,10 +4308,10 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
+      <c r="A324" t="s">
         <v>87</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="B324" t="s">
         <v>6</v>
       </c>
       <c r="C324">
@@ -4317,10 +4319,10 @@
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
+      <c r="A325" t="s">
         <v>87</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="B325" t="s">
         <v>7</v>
       </c>
       <c r="C325">
@@ -4328,10 +4330,10 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
+      <c r="A326" t="s">
         <v>88</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="B326" t="s">
         <v>4</v>
       </c>
       <c r="C326">
@@ -4339,10 +4341,10 @@
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="1" t="s">
+      <c r="A327" t="s">
         <v>88</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="B327" t="s">
         <v>5</v>
       </c>
       <c r="C327">
@@ -4350,10 +4352,10 @@
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
+      <c r="A328" t="s">
         <v>88</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="B328" t="s">
         <v>6</v>
       </c>
       <c r="C328">
@@ -4361,10 +4363,10 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
+      <c r="A329" t="s">
         <v>88</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="B329" t="s">
         <v>7</v>
       </c>
       <c r="C329">
@@ -4372,10 +4374,10 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
+      <c r="A330" t="s">
         <v>89</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="B330" t="s">
         <v>4</v>
       </c>
       <c r="C330">
@@ -4383,10 +4385,10 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="1" t="s">
+      <c r="A331" t="s">
         <v>89</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="B331" t="s">
         <v>5</v>
       </c>
       <c r="C331">
@@ -4394,10 +4396,10 @@
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
+      <c r="A332" t="s">
         <v>89</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="B332" t="s">
         <v>6</v>
       </c>
       <c r="C332">
@@ -4405,10 +4407,10 @@
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
+      <c r="A333" t="s">
         <v>89</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="B333" t="s">
         <v>7</v>
       </c>
       <c r="C333">
@@ -4416,10 +4418,10 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
+      <c r="A334" t="s">
         <v>90</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="B334" t="s">
         <v>4</v>
       </c>
       <c r="C334">
@@ -4427,10 +4429,10 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
+      <c r="A335" t="s">
         <v>90</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="B335" t="s">
         <v>5</v>
       </c>
       <c r="C335">
@@ -4438,10 +4440,10 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
+      <c r="A336" t="s">
         <v>90</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="B336" t="s">
         <v>6</v>
       </c>
       <c r="C336">
@@ -4449,10 +4451,10 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
+      <c r="A337" t="s">
         <v>90</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="B337" t="s">
         <v>7</v>
       </c>
       <c r="C337">
@@ -4460,10 +4462,10 @@
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
+      <c r="A338" t="s">
         <v>91</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="B338" t="s">
         <v>4</v>
       </c>
       <c r="C338">
@@ -4471,10 +4473,10 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="1" t="s">
+      <c r="A339" t="s">
         <v>91</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="B339" t="s">
         <v>5</v>
       </c>
       <c r="C339">
@@ -4482,10 +4484,10 @@
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="1" t="s">
+      <c r="A340" t="s">
         <v>91</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="B340" t="s">
         <v>6</v>
       </c>
       <c r="C340">
@@ -4493,10 +4495,10 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
+      <c r="A341" t="s">
         <v>91</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="B341" t="s">
         <v>7</v>
       </c>
       <c r="C341">
@@ -4504,10 +4506,10 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
+      <c r="A342" t="s">
         <v>92</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="B342" t="s">
         <v>4</v>
       </c>
       <c r="C342">
@@ -4515,10 +4517,10 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
+      <c r="A343" t="s">
         <v>92</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="B343" t="s">
         <v>5</v>
       </c>
       <c r="C343">
@@ -4526,10 +4528,10 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
+      <c r="A344" t="s">
         <v>92</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="B344" t="s">
         <v>6</v>
       </c>
       <c r="C344">
@@ -4537,10 +4539,10 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="1" t="s">
+      <c r="A345" t="s">
         <v>92</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="B345" t="s">
         <v>7</v>
       </c>
       <c r="C345">
@@ -4548,10 +4550,10 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
+      <c r="A346" t="s">
         <v>93</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="B346" t="s">
         <v>4</v>
       </c>
       <c r="C346">
@@ -4559,10 +4561,10 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
+      <c r="A347" t="s">
         <v>93</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="B347" t="s">
         <v>5</v>
       </c>
       <c r="C347">
@@ -4570,10 +4572,10 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
+      <c r="A348" t="s">
         <v>93</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="B348" t="s">
         <v>6</v>
       </c>
       <c r="C348">
@@ -4581,10 +4583,10 @@
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
+      <c r="A349" t="s">
         <v>93</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="B349" t="s">
         <v>7</v>
       </c>
       <c r="C349">
@@ -4592,10 +4594,10 @@
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
+      <c r="A350" t="s">
         <v>94</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B350" t="s">
         <v>4</v>
       </c>
       <c r="C350">
@@ -4603,10 +4605,10 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
+      <c r="A351" t="s">
         <v>94</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="B351" t="s">
         <v>5</v>
       </c>
       <c r="C351">
@@ -4614,10 +4616,10 @@
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
+      <c r="A352" t="s">
         <v>94</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="B352" t="s">
         <v>6</v>
       </c>
       <c r="C352">
@@ -4625,10 +4627,10 @@
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="1" t="s">
+      <c r="A353" t="s">
         <v>94</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="B353" t="s">
         <v>7</v>
       </c>
       <c r="C353">
@@ -4636,10 +4638,10 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
+      <c r="A354" t="s">
         <v>95</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="B354" t="s">
         <v>4</v>
       </c>
       <c r="C354">
@@ -4647,10 +4649,10 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
+      <c r="A355" t="s">
         <v>95</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B355" t="s">
         <v>5</v>
       </c>
       <c r="C355">
@@ -4658,10 +4660,10 @@
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
+      <c r="A356" t="s">
         <v>95</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B356" t="s">
         <v>6</v>
       </c>
       <c r="C356">
@@ -4669,10 +4671,10 @@
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="1" t="s">
+      <c r="A357" t="s">
         <v>95</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="B357" t="s">
         <v>7</v>
       </c>
       <c r="C357">
@@ -4680,10 +4682,10 @@
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
+      <c r="A358" t="s">
         <v>96</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="B358" t="s">
         <v>4</v>
       </c>
       <c r="C358">
@@ -4691,10 +4693,10 @@
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="1" t="s">
+      <c r="A359" t="s">
         <v>96</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="B359" t="s">
         <v>5</v>
       </c>
       <c r="C359">
@@ -4702,10 +4704,10 @@
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
+      <c r="A360" t="s">
         <v>96</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="B360" t="s">
         <v>6</v>
       </c>
       <c r="C360">
@@ -4713,10 +4715,10 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="1" t="s">
+      <c r="A361" t="s">
         <v>96</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="B361" t="s">
         <v>7</v>
       </c>
       <c r="C361">
@@ -4724,10 +4726,10 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
+      <c r="A362" t="s">
         <v>97</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="B362" t="s">
         <v>4</v>
       </c>
       <c r="C362">
@@ -4735,10 +4737,10 @@
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="1" t="s">
+      <c r="A363" t="s">
         <v>97</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="B363" t="s">
         <v>5</v>
       </c>
       <c r="C363">
@@ -4746,10 +4748,10 @@
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
+      <c r="A364" t="s">
         <v>97</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="B364" t="s">
         <v>6</v>
       </c>
       <c r="C364">
@@ -4757,10 +4759,10 @@
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
+      <c r="A365" t="s">
         <v>97</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="B365" t="s">
         <v>7</v>
       </c>
       <c r="C365">
@@ -4768,10 +4770,10 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
+      <c r="A366" t="s">
         <v>98</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="B366" t="s">
         <v>4</v>
       </c>
       <c r="C366">
@@ -4779,10 +4781,10 @@
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="1" t="s">
+      <c r="A367" t="s">
         <v>98</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="B367" t="s">
         <v>5</v>
       </c>
       <c r="C367">
@@ -4790,10 +4792,10 @@
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
+      <c r="A368" t="s">
         <v>98</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="B368" t="s">
         <v>6</v>
       </c>
       <c r="C368">
@@ -4801,10 +4803,10 @@
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="1" t="s">
+      <c r="A369" t="s">
         <v>98</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="B369" t="s">
         <v>7</v>
       </c>
       <c r="C369">
@@ -4812,10 +4814,10 @@
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
+      <c r="A370" t="s">
         <v>99</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="B370" t="s">
         <v>4</v>
       </c>
       <c r="C370">
@@ -4823,10 +4825,10 @@
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="1" t="s">
+      <c r="A371" t="s">
         <v>99</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="B371" t="s">
         <v>5</v>
       </c>
       <c r="C371">
@@ -4834,10 +4836,10 @@
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
+      <c r="A372" t="s">
         <v>99</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="B372" t="s">
         <v>6</v>
       </c>
       <c r="C372">
@@ -4845,10 +4847,10 @@
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
+      <c r="A373" t="s">
         <v>99</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="B373" t="s">
         <v>7</v>
       </c>
       <c r="C373">
@@ -4856,10 +4858,10 @@
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
+      <c r="A374" t="s">
         <v>100</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="B374" t="s">
         <v>4</v>
       </c>
       <c r="C374">
@@ -4867,10 +4869,10 @@
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
+      <c r="A375" t="s">
         <v>100</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="B375" t="s">
         <v>5</v>
       </c>
       <c r="C375">
@@ -4878,10 +4880,10 @@
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
+      <c r="A376" t="s">
         <v>100</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="B376" t="s">
         <v>6</v>
       </c>
       <c r="C376">
@@ -4889,10 +4891,10 @@
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="1" t="s">
+      <c r="A377" t="s">
         <v>100</v>
       </c>
-      <c r="B377" s="1" t="s">
+      <c r="B377" t="s">
         <v>7</v>
       </c>
       <c r="C377">
@@ -4900,10 +4902,10 @@
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="1" t="s">
+      <c r="A378" t="s">
         <v>101</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="B378" t="s">
         <v>4</v>
       </c>
       <c r="C378">
@@ -4911,10 +4913,10 @@
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="1" t="s">
+      <c r="A379" t="s">
         <v>101</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="B379" t="s">
         <v>5</v>
       </c>
       <c r="C379">
@@ -4922,10 +4924,10 @@
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
+      <c r="A380" t="s">
         <v>101</v>
       </c>
-      <c r="B380" s="1" t="s">
+      <c r="B380" t="s">
         <v>6</v>
       </c>
       <c r="C380">
@@ -4933,10 +4935,10 @@
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="1" t="s">
+      <c r="A381" t="s">
         <v>101</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="B381" t="s">
         <v>7</v>
       </c>
       <c r="C381">
@@ -4944,10 +4946,10 @@
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="1" t="s">
+      <c r="A382" t="s">
         <v>102</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="B382" t="s">
         <v>4</v>
       </c>
       <c r="C382">
@@ -4955,10 +4957,10 @@
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="1" t="s">
+      <c r="A383" t="s">
         <v>102</v>
       </c>
-      <c r="B383" s="1" t="s">
+      <c r="B383" t="s">
         <v>5</v>
       </c>
       <c r="C383">
@@ -4966,10 +4968,10 @@
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="1" t="s">
+      <c r="A384" t="s">
         <v>102</v>
       </c>
-      <c r="B384" s="1" t="s">
+      <c r="B384" t="s">
         <v>6</v>
       </c>
       <c r="C384">
@@ -4977,10 +4979,10 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="1" t="s">
+      <c r="A385" t="s">
         <v>102</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="B385" t="s">
         <v>7</v>
       </c>
       <c r="C385">

--- a/Arquivos/Dataset/termos_Concelho.xlsx
+++ b/Arquivos/Dataset/termos_Concelho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projeto PP\GymTrend-Task-Force\Arquivos\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A46965-0E41-48BA-B4B6-47DFBB20CEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA793FA-DAC6-4277-A78F-F66DEA941593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E34A085-28B9-4C2F-B6B4-95072BA85716}"/>
   </bookViews>
@@ -62,18 +62,6 @@
     <t>Gondomar</t>
   </si>
   <si>
-    <t>ginasio: (2023)</t>
-  </si>
-  <si>
-    <t>ginásio: (2023)</t>
-  </si>
-  <si>
-    <t>ginásios: (2023)</t>
-  </si>
-  <si>
-    <t>ginasios: (2023)</t>
-  </si>
-  <si>
     <t>Loures</t>
   </si>
   <si>
@@ -357,6 +345,18 @@
   </si>
   <si>
     <t>Mafra</t>
+  </si>
+  <si>
+    <t>ginasio</t>
+  </si>
+  <si>
+    <t>ginásio</t>
+  </si>
+  <si>
+    <t>ginasios</t>
+  </si>
+  <si>
+    <t>ginásios</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A195936-3802-4C35-B43F-EA489C118242}" name="geoMap_ginasios" displayName="geoMap_ginasios" ref="A1:C385" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C385" xr:uid="{7A195936-3802-4C35-B43F-EA489C118242}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C385">
     <sortCondition descending="1" ref="C1:C385"/>
   </sortState>
@@ -743,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC44209-7355-4A65-9607-267A54FB324D}">
   <dimension ref="A1:C385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -778,10 +777,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -789,10 +788,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -800,10 +799,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -811,10 +810,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -822,10 +821,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -833,10 +832,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -844,10 +843,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -855,10 +854,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -866,10 +865,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -877,10 +876,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -888,10 +887,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -899,10 +898,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -910,10 +909,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C15">
         <v>0.86</v>
@@ -921,10 +920,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C16">
         <v>0.75</v>
@@ -932,10 +931,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>0.75</v>
@@ -943,10 +942,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C18">
         <v>0.73</v>
@@ -954,10 +953,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C19">
         <v>0.69</v>
@@ -965,10 +964,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C20">
         <v>0.67</v>
@@ -976,10 +975,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C21">
         <v>0.57999999999999996</v>
@@ -990,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>0.28999999999999998</v>
@@ -998,10 +997,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>0.25</v>
@@ -1009,10 +1008,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>0.22</v>
@@ -1020,10 +1019,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>0.22</v>
@@ -1031,10 +1030,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>0.22</v>
@@ -1042,10 +1041,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C27">
         <v>0.22</v>
@@ -1053,10 +1052,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>0.21</v>
@@ -1064,10 +1063,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>0.16</v>
@@ -1075,10 +1074,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C30">
         <v>0.16</v>
@@ -1086,10 +1085,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C31">
         <v>0.15</v>
@@ -1097,10 +1096,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C32">
         <v>0.14000000000000001</v>
@@ -1108,10 +1107,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C33">
         <v>0.12</v>
@@ -1122,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C34">
         <v>0.06</v>
@@ -1130,10 +1129,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C35">
         <v>0.06</v>
@@ -1141,10 +1140,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C36">
         <v>0.05</v>
@@ -1152,10 +1151,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C37">
         <v>0.04</v>
@@ -1163,10 +1162,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C38">
         <v>0.03</v>
@@ -1177,7 +1176,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1185,10 +1184,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1196,10 +1195,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1207,10 +1206,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1218,10 +1217,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1229,10 +1228,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1240,10 +1239,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1251,10 +1250,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1262,10 +1261,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1273,10 +1272,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1284,10 +1283,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1295,10 +1294,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1306,10 +1305,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1317,10 +1316,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1328,10 +1327,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1339,10 +1338,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1350,10 +1349,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1361,10 +1360,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1372,10 +1371,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1383,10 +1382,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1394,10 +1393,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1405,10 +1404,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1416,10 +1415,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1427,10 +1426,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1438,10 +1437,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1449,10 +1448,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1460,10 +1459,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1471,10 +1470,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1482,10 +1481,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1493,10 +1492,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1504,10 +1503,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1515,10 +1514,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1526,10 +1525,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1537,10 +1536,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1548,10 +1547,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1559,10 +1558,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1570,10 +1569,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1581,10 +1580,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1592,10 +1591,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1603,10 +1602,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1614,10 +1613,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1625,10 +1624,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1636,10 +1635,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1647,10 +1646,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1658,10 +1657,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1669,10 +1668,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1680,10 +1679,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1691,10 +1690,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1702,10 +1701,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1713,10 +1712,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1724,10 +1723,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1735,10 +1734,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1746,10 +1745,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1757,10 +1756,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1768,10 +1767,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1779,10 +1778,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1790,10 +1789,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1801,10 +1800,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -1812,10 +1811,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1823,10 +1822,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1834,10 +1833,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1845,10 +1844,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1856,10 +1855,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -1867,10 +1866,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -1878,10 +1877,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -1889,10 +1888,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -1900,10 +1899,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -1911,10 +1910,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -1922,10 +1921,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -1933,10 +1932,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -1944,10 +1943,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -1955,10 +1954,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -1966,10 +1965,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -1977,10 +1976,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -1988,10 +1987,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -1999,10 +1998,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2010,10 +2009,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2021,10 +2020,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2032,10 +2031,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2043,10 +2042,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2054,10 +2053,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2065,10 +2064,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2076,10 +2075,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2087,10 +2086,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2098,10 +2097,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2109,10 +2108,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2120,10 +2119,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2131,10 +2130,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2142,10 +2141,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2153,10 +2152,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2164,10 +2163,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2175,10 +2174,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2186,10 +2185,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2197,10 +2196,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2208,10 +2207,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2219,10 +2218,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2230,10 +2229,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2241,10 +2240,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2252,10 +2251,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2263,10 +2262,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2274,10 +2273,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2285,10 +2284,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2296,10 +2295,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2307,10 +2306,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2318,10 +2317,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2329,10 +2328,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2340,10 +2339,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2351,10 +2350,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2362,10 +2361,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2373,10 +2372,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2384,10 +2383,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2395,10 +2394,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2406,10 +2405,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2417,10 +2416,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2428,10 +2427,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2439,10 +2438,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -2450,10 +2449,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -2461,10 +2460,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -2472,10 +2471,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -2483,10 +2482,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B158" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -2494,10 +2493,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2505,10 +2504,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -2516,10 +2515,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -2527,10 +2526,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B162" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -2538,10 +2537,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -2549,10 +2548,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -2560,10 +2559,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -2571,10 +2570,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -2582,10 +2581,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -2593,10 +2592,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -2604,10 +2603,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -2615,10 +2614,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -2626,10 +2625,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -2637,10 +2636,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -2648,10 +2647,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -2659,10 +2658,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -2670,10 +2669,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -2681,10 +2680,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -2692,10 +2691,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -2703,10 +2702,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B178" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -2714,10 +2713,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -2725,10 +2724,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -2736,10 +2735,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -2747,10 +2746,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B182" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -2758,10 +2757,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -2769,10 +2768,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -2780,10 +2779,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -2791,10 +2790,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B186" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -2802,10 +2801,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -2813,10 +2812,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -2824,10 +2823,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -2835,10 +2834,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B190" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -2846,10 +2845,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -2857,10 +2856,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -2868,10 +2867,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -2879,10 +2878,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B194" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -2890,10 +2889,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -2901,10 +2900,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -2912,10 +2911,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -2923,10 +2922,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B198" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -2934,10 +2933,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -2945,10 +2944,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -2956,10 +2955,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -2967,10 +2966,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B202" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -2978,10 +2977,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -2989,10 +2988,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3000,10 +2999,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3011,10 +3010,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B206" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3022,10 +3021,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -3033,10 +3032,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3044,10 +3043,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3055,10 +3054,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3066,10 +3065,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -3077,10 +3076,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3088,10 +3087,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -3099,10 +3098,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B214" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3110,10 +3109,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -3121,10 +3120,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -3132,10 +3131,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -3143,10 +3142,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B218" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -3154,10 +3153,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -3165,10 +3164,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -3176,10 +3175,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -3187,10 +3186,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B222" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -3198,10 +3197,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -3209,10 +3208,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -3220,10 +3219,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -3231,10 +3230,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B226" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -3242,10 +3241,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -3253,10 +3252,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -3264,10 +3263,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -3275,10 +3274,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B230" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -3286,10 +3285,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -3297,10 +3296,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -3308,10 +3307,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -3319,10 +3318,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B234" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -3330,10 +3329,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -3341,10 +3340,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -3352,10 +3351,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -3363,10 +3362,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B238" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -3374,10 +3373,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -3385,10 +3384,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -3396,10 +3395,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -3407,10 +3406,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B242" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -3418,10 +3417,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -3429,10 +3428,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -3440,10 +3439,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -3451,10 +3450,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B246" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -3462,10 +3461,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -3473,10 +3472,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -3484,10 +3483,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -3495,10 +3494,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B250" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -3506,10 +3505,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -3517,10 +3516,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -3528,10 +3527,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -3539,10 +3538,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B254" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -3550,10 +3549,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -3561,10 +3560,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -3572,10 +3571,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -3583,10 +3582,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B258" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -3594,10 +3593,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B259" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -3605,10 +3604,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B260" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -3616,10 +3615,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B261" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -3627,10 +3626,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B262" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -3638,10 +3637,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -3649,10 +3648,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B264" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -3660,10 +3659,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B265" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -3671,10 +3670,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B266" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -3682,10 +3681,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B267" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -3693,10 +3692,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B268" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -3704,10 +3703,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B269" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -3715,10 +3714,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B270" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -3726,10 +3725,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B271" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -3737,10 +3736,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B272" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -3748,10 +3747,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B273" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -3759,10 +3758,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B274" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -3770,10 +3769,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B275" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -3781,10 +3780,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -3792,10 +3791,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B277" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -3803,10 +3802,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B278" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -3814,10 +3813,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B279" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -3825,10 +3824,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B280" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -3836,10 +3835,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B281" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -3847,10 +3846,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B282" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -3858,10 +3857,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -3869,10 +3868,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B284" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -3880,10 +3879,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B285" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -3891,10 +3890,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B286" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -3902,10 +3901,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B287" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -3913,10 +3912,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B288" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -3924,10 +3923,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B289" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -3935,10 +3934,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B290" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -3946,10 +3945,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -3957,10 +3956,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B292" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -3968,10 +3967,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B293" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -3979,10 +3978,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B294" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -3990,10 +3989,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B295" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -4001,10 +4000,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B296" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -4012,10 +4011,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B297" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -4023,10 +4022,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B298" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -4034,10 +4033,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B299" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -4045,10 +4044,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B300" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -4056,10 +4055,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B301" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -4067,10 +4066,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B302" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -4078,10 +4077,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B303" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -4089,10 +4088,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B304" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -4100,10 +4099,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B305" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -4111,10 +4110,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B306" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -4122,10 +4121,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B307" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -4133,10 +4132,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B308" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -4144,10 +4143,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B309" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -4155,10 +4154,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B310" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -4166,10 +4165,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B311" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -4177,10 +4176,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B312" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -4188,10 +4187,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B313" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -4199,10 +4198,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B314" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -4210,10 +4209,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B315" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -4221,10 +4220,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B316" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -4232,10 +4231,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B317" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -4243,10 +4242,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B318" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -4254,10 +4253,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B319" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -4265,10 +4264,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B320" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -4276,10 +4275,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B321" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -4287,10 +4286,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B322" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -4298,10 +4297,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B323" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -4309,10 +4308,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B324" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -4320,10 +4319,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B325" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -4331,10 +4330,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B326" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -4342,10 +4341,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B327" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -4353,10 +4352,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B328" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -4364,10 +4363,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B329" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -4375,10 +4374,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B330" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -4386,10 +4385,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B331" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -4397,10 +4396,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B332" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -4408,10 +4407,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B333" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -4419,10 +4418,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B334" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -4430,10 +4429,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B335" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -4441,10 +4440,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B336" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -4452,10 +4451,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B337" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -4463,10 +4462,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B338" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -4474,10 +4473,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B339" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -4485,10 +4484,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B340" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -4496,10 +4495,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B341" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -4507,10 +4506,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B342" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -4518,10 +4517,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B343" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -4529,10 +4528,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B344" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -4540,10 +4539,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B345" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -4551,10 +4550,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B346" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -4562,10 +4561,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B347" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -4573,10 +4572,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B348" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -4584,10 +4583,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B349" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -4595,10 +4594,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B350" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -4606,10 +4605,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B351" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -4617,10 +4616,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B352" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -4628,10 +4627,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B353" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -4639,10 +4638,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B354" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -4650,10 +4649,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B355" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -4661,10 +4660,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B356" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -4672,10 +4671,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B357" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -4683,10 +4682,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B358" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -4694,10 +4693,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B359" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -4705,10 +4704,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B360" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -4716,10 +4715,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B361" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -4727,10 +4726,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B362" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -4738,10 +4737,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B363" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -4749,10 +4748,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B364" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -4760,10 +4759,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B365" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -4771,10 +4770,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B366" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -4782,10 +4781,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B367" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -4793,10 +4792,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B368" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -4804,10 +4803,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B369" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -4815,10 +4814,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B370" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -4826,10 +4825,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B371" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -4837,10 +4836,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B372" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -4848,10 +4847,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B373" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -4859,10 +4858,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B374" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -4870,10 +4869,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B375" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -4881,10 +4880,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B376" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -4892,10 +4891,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B377" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -4903,10 +4902,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B378" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -4914,10 +4913,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B379" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -4925,10 +4924,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B380" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -4936,10 +4935,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B381" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -4947,10 +4946,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B382" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -4958,10 +4957,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B383" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -4969,10 +4968,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B384" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -4980,10 +4979,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B385" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C385">
         <v>0</v>

--- a/Arquivos/Dataset/termos_Concelho.xlsx
+++ b/Arquivos/Dataset/termos_Concelho.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projeto PP\GymTrend-Task-Force\Arquivos\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\Projectos\UPskill\Projecto Power\GymTrend-Task-Force\Arquivos\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA793FA-DAC6-4277-A78F-F66DEA941593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29EABF6-70B1-4392-844B-D59F9D923D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E34A085-28B9-4C2F-B6B4-95072BA85716}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E34A085-28B9-4C2F-B6B4-95072BA85716}"/>
   </bookViews>
   <sheets>
     <sheet name="geoMap_ginasios" sheetId="2" r:id="rId1"/>
     <sheet name="Folha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">geoMap_ginasios!$A$1:$C$385</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">geoMap_ginasios!$A$1:$C$377</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="101">
   <si>
     <t>Cidade</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Ovar</t>
   </si>
   <si>
-    <t>Ponta Delgada</t>
-  </si>
-  <si>
     <t>Torres Vedras</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
   </si>
   <si>
     <t>Castro Marim</t>
-  </si>
-  <si>
-    <t>Ponta do Sol</t>
   </si>
   <si>
     <t>Cinfães</t>
@@ -430,9 +424,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A195936-3802-4C35-B43F-EA489C118242}" name="geoMap_ginasios" displayName="geoMap_ginasios" ref="A1:C385" tableType="queryTable" totalsRowShown="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C385">
-    <sortCondition descending="1" ref="C1:C385"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A195936-3802-4C35-B43F-EA489C118242}" name="geoMap_ginasios" displayName="geoMap_ginasios" ref="A1:C377" tableType="queryTable" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C377">
+    <sortCondition descending="1" ref="C1:C377"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A9E2DA8B-F642-49DB-ADE4-156FEEA4D67D}" uniqueName="1" name="Cidade" queryTableFieldId="1" dataDxfId="1"/>
@@ -740,11 +734,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC44209-7355-4A65-9607-267A54FB324D}">
-  <dimension ref="A1:C385"/>
+  <dimension ref="A1:C377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -769,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -780,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -791,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -802,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -813,7 +805,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -824,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -835,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -846,7 +838,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -857,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -868,7 +860,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -879,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -890,7 +882,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -901,10 +893,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -912,10 +904,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -923,7 +915,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16">
         <v>0.75</v>
@@ -934,10 +926,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -945,10 +937,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C18">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -956,10 +948,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -967,51 +959,51 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20">
-        <v>0.67</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21">
-        <v>0.57999999999999996</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24">
         <v>0.22</v>
@@ -1022,7 +1014,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25">
         <v>0.22</v>
@@ -1030,10 +1022,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26">
         <v>0.22</v>
@@ -1041,32 +1033,32 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C27">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29">
         <v>0.16</v>
@@ -1074,54 +1066,54 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34">
         <v>0.06</v>
@@ -1129,54 +1121,54 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C37">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C38">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1198,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1206,10 +1198,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1231,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1239,10 +1231,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1264,7 +1256,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1272,10 +1264,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1297,7 +1289,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1305,10 +1297,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1316,10 +1308,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1341,7 +1333,7 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1349,10 +1341,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1374,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1382,10 +1374,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1407,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1415,10 +1407,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1440,7 +1432,7 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1448,10 +1440,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1473,7 +1465,7 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1481,10 +1473,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1506,7 +1498,7 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1514,10 +1506,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1536,10 +1528,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1547,10 +1539,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1558,10 +1550,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1569,10 +1561,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1580,10 +1572,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1591,10 +1583,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1602,10 +1594,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1613,10 +1605,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1624,10 +1616,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1635,10 +1627,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1649,7 +1641,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1660,7 +1652,7 @@
         <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1671,7 +1663,7 @@
         <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1682,7 +1674,7 @@
         <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1693,7 +1685,7 @@
         <v>24</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1704,7 +1696,7 @@
         <v>24</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1715,7 +1707,7 @@
         <v>24</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1726,7 +1718,7 @@
         <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1737,7 +1729,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1748,7 +1740,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1759,7 +1751,7 @@
         <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1770,7 +1762,7 @@
         <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1781,7 +1773,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1792,7 +1784,7 @@
         <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1803,7 +1795,7 @@
         <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -1814,7 +1806,7 @@
         <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1825,7 +1817,7 @@
         <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1836,7 +1828,7 @@
         <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1847,7 +1839,7 @@
         <v>27</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1858,7 +1850,7 @@
         <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -1869,7 +1861,7 @@
         <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -1880,7 +1872,7 @@
         <v>28</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -1891,7 +1883,7 @@
         <v>28</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -1902,7 +1894,7 @@
         <v>28</v>
       </c>
       <c r="B105" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -1913,7 +1905,7 @@
         <v>29</v>
       </c>
       <c r="B106" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -1924,7 +1916,7 @@
         <v>29</v>
       </c>
       <c r="B107" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -1935,7 +1927,7 @@
         <v>29</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -1946,7 +1938,7 @@
         <v>29</v>
       </c>
       <c r="B109" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -1957,7 +1949,7 @@
         <v>30</v>
       </c>
       <c r="B110" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -1968,7 +1960,7 @@
         <v>30</v>
       </c>
       <c r="B111" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -1979,7 +1971,7 @@
         <v>30</v>
       </c>
       <c r="B112" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -1990,7 +1982,7 @@
         <v>30</v>
       </c>
       <c r="B113" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2001,7 +1993,7 @@
         <v>31</v>
       </c>
       <c r="B114" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2012,7 +2004,7 @@
         <v>31</v>
       </c>
       <c r="B115" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2023,7 +2015,7 @@
         <v>31</v>
       </c>
       <c r="B116" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2034,7 +2026,7 @@
         <v>31</v>
       </c>
       <c r="B117" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2045,7 +2037,7 @@
         <v>32</v>
       </c>
       <c r="B118" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2056,7 +2048,7 @@
         <v>32</v>
       </c>
       <c r="B119" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2067,7 +2059,7 @@
         <v>32</v>
       </c>
       <c r="B120" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2078,7 +2070,7 @@
         <v>32</v>
       </c>
       <c r="B121" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2089,7 +2081,7 @@
         <v>33</v>
       </c>
       <c r="B122" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2100,7 +2092,7 @@
         <v>33</v>
       </c>
       <c r="B123" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2111,7 +2103,7 @@
         <v>33</v>
       </c>
       <c r="B124" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2122,7 +2114,7 @@
         <v>33</v>
       </c>
       <c r="B125" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2133,7 +2125,7 @@
         <v>34</v>
       </c>
       <c r="B126" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2144,7 +2136,7 @@
         <v>34</v>
       </c>
       <c r="B127" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2155,7 +2147,7 @@
         <v>34</v>
       </c>
       <c r="B128" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2166,7 +2158,7 @@
         <v>34</v>
       </c>
       <c r="B129" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2177,7 +2169,7 @@
         <v>35</v>
       </c>
       <c r="B130" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2188,7 +2180,7 @@
         <v>35</v>
       </c>
       <c r="B131" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2199,7 +2191,7 @@
         <v>35</v>
       </c>
       <c r="B132" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2210,7 +2202,7 @@
         <v>35</v>
       </c>
       <c r="B133" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2221,7 +2213,7 @@
         <v>36</v>
       </c>
       <c r="B134" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2232,7 +2224,7 @@
         <v>36</v>
       </c>
       <c r="B135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2243,7 +2235,7 @@
         <v>36</v>
       </c>
       <c r="B136" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2254,7 +2246,7 @@
         <v>36</v>
       </c>
       <c r="B137" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2265,7 +2257,7 @@
         <v>37</v>
       </c>
       <c r="B138" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2276,7 +2268,7 @@
         <v>37</v>
       </c>
       <c r="B139" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2287,7 +2279,7 @@
         <v>37</v>
       </c>
       <c r="B140" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2298,7 +2290,7 @@
         <v>37</v>
       </c>
       <c r="B141" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2309,7 +2301,7 @@
         <v>38</v>
       </c>
       <c r="B142" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2320,7 +2312,7 @@
         <v>38</v>
       </c>
       <c r="B143" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2331,7 +2323,7 @@
         <v>38</v>
       </c>
       <c r="B144" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2342,7 +2334,7 @@
         <v>38</v>
       </c>
       <c r="B145" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2353,7 +2345,7 @@
         <v>39</v>
       </c>
       <c r="B146" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2364,7 +2356,7 @@
         <v>39</v>
       </c>
       <c r="B147" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2375,7 +2367,7 @@
         <v>39</v>
       </c>
       <c r="B148" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2386,7 +2378,7 @@
         <v>39</v>
       </c>
       <c r="B149" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2397,7 +2389,7 @@
         <v>40</v>
       </c>
       <c r="B150" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2408,7 +2400,7 @@
         <v>40</v>
       </c>
       <c r="B151" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2419,7 +2411,7 @@
         <v>40</v>
       </c>
       <c r="B152" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2430,7 +2422,7 @@
         <v>40</v>
       </c>
       <c r="B153" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2441,7 +2433,7 @@
         <v>41</v>
       </c>
       <c r="B154" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -2452,7 +2444,7 @@
         <v>41</v>
       </c>
       <c r="B155" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -2463,7 +2455,7 @@
         <v>41</v>
       </c>
       <c r="B156" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -2474,7 +2466,7 @@
         <v>41</v>
       </c>
       <c r="B157" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -2485,7 +2477,7 @@
         <v>42</v>
       </c>
       <c r="B158" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -2496,7 +2488,7 @@
         <v>42</v>
       </c>
       <c r="B159" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2507,7 +2499,7 @@
         <v>42</v>
       </c>
       <c r="B160" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -2518,7 +2510,7 @@
         <v>42</v>
       </c>
       <c r="B161" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -2529,7 +2521,7 @@
         <v>43</v>
       </c>
       <c r="B162" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -2540,7 +2532,7 @@
         <v>43</v>
       </c>
       <c r="B163" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -2551,7 +2543,7 @@
         <v>43</v>
       </c>
       <c r="B164" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -2562,7 +2554,7 @@
         <v>43</v>
       </c>
       <c r="B165" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -2573,7 +2565,7 @@
         <v>44</v>
       </c>
       <c r="B166" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -2584,7 +2576,7 @@
         <v>44</v>
       </c>
       <c r="B167" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -2595,7 +2587,7 @@
         <v>44</v>
       </c>
       <c r="B168" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -2606,7 +2598,7 @@
         <v>44</v>
       </c>
       <c r="B169" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -2617,7 +2609,7 @@
         <v>45</v>
       </c>
       <c r="B170" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -2628,7 +2620,7 @@
         <v>45</v>
       </c>
       <c r="B171" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -2639,7 +2631,7 @@
         <v>45</v>
       </c>
       <c r="B172" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -2650,7 +2642,7 @@
         <v>45</v>
       </c>
       <c r="B173" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -2661,7 +2653,7 @@
         <v>46</v>
       </c>
       <c r="B174" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -2672,7 +2664,7 @@
         <v>46</v>
       </c>
       <c r="B175" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -2683,7 +2675,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -2694,7 +2686,7 @@
         <v>46</v>
       </c>
       <c r="B177" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -2705,7 +2697,7 @@
         <v>47</v>
       </c>
       <c r="B178" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -2716,7 +2708,7 @@
         <v>47</v>
       </c>
       <c r="B179" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -2727,7 +2719,7 @@
         <v>47</v>
       </c>
       <c r="B180" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -2738,7 +2730,7 @@
         <v>47</v>
       </c>
       <c r="B181" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -2749,7 +2741,7 @@
         <v>48</v>
       </c>
       <c r="B182" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -2760,7 +2752,7 @@
         <v>48</v>
       </c>
       <c r="B183" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -2771,7 +2763,7 @@
         <v>48</v>
       </c>
       <c r="B184" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -2782,7 +2774,7 @@
         <v>48</v>
       </c>
       <c r="B185" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -2793,7 +2785,7 @@
         <v>49</v>
       </c>
       <c r="B186" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -2804,7 +2796,7 @@
         <v>49</v>
       </c>
       <c r="B187" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -2815,7 +2807,7 @@
         <v>49</v>
       </c>
       <c r="B188" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -2826,7 +2818,7 @@
         <v>49</v>
       </c>
       <c r="B189" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -2837,7 +2829,7 @@
         <v>50</v>
       </c>
       <c r="B190" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -2848,7 +2840,7 @@
         <v>50</v>
       </c>
       <c r="B191" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -2859,7 +2851,7 @@
         <v>50</v>
       </c>
       <c r="B192" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -2870,7 +2862,7 @@
         <v>50</v>
       </c>
       <c r="B193" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -2881,7 +2873,7 @@
         <v>51</v>
       </c>
       <c r="B194" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -2892,7 +2884,7 @@
         <v>51</v>
       </c>
       <c r="B195" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -2903,7 +2895,7 @@
         <v>51</v>
       </c>
       <c r="B196" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -2914,7 +2906,7 @@
         <v>51</v>
       </c>
       <c r="B197" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -2925,7 +2917,7 @@
         <v>52</v>
       </c>
       <c r="B198" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -2936,7 +2928,7 @@
         <v>52</v>
       </c>
       <c r="B199" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -2947,7 +2939,7 @@
         <v>52</v>
       </c>
       <c r="B200" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -2958,7 +2950,7 @@
         <v>52</v>
       </c>
       <c r="B201" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -2969,7 +2961,7 @@
         <v>53</v>
       </c>
       <c r="B202" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -2980,7 +2972,7 @@
         <v>53</v>
       </c>
       <c r="B203" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -2991,7 +2983,7 @@
         <v>53</v>
       </c>
       <c r="B204" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3002,7 +2994,7 @@
         <v>53</v>
       </c>
       <c r="B205" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3013,7 +3005,7 @@
         <v>54</v>
       </c>
       <c r="B206" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3024,7 +3016,7 @@
         <v>54</v>
       </c>
       <c r="B207" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -3035,7 +3027,7 @@
         <v>54</v>
       </c>
       <c r="B208" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3046,7 +3038,7 @@
         <v>54</v>
       </c>
       <c r="B209" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3057,7 +3049,7 @@
         <v>55</v>
       </c>
       <c r="B210" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3068,7 +3060,7 @@
         <v>55</v>
       </c>
       <c r="B211" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -3079,7 +3071,7 @@
         <v>55</v>
       </c>
       <c r="B212" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3090,7 +3082,7 @@
         <v>55</v>
       </c>
       <c r="B213" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -3101,7 +3093,7 @@
         <v>56</v>
       </c>
       <c r="B214" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3112,7 +3104,7 @@
         <v>56</v>
       </c>
       <c r="B215" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -3123,7 +3115,7 @@
         <v>56</v>
       </c>
       <c r="B216" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -3134,7 +3126,7 @@
         <v>56</v>
       </c>
       <c r="B217" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -3145,7 +3137,7 @@
         <v>57</v>
       </c>
       <c r="B218" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -3156,7 +3148,7 @@
         <v>57</v>
       </c>
       <c r="B219" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -3167,7 +3159,7 @@
         <v>57</v>
       </c>
       <c r="B220" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -3178,7 +3170,7 @@
         <v>57</v>
       </c>
       <c r="B221" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -3189,7 +3181,7 @@
         <v>58</v>
       </c>
       <c r="B222" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -3200,7 +3192,7 @@
         <v>58</v>
       </c>
       <c r="B223" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -3211,7 +3203,7 @@
         <v>58</v>
       </c>
       <c r="B224" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -3222,7 +3214,7 @@
         <v>58</v>
       </c>
       <c r="B225" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -3233,7 +3225,7 @@
         <v>59</v>
       </c>
       <c r="B226" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -3244,7 +3236,7 @@
         <v>59</v>
       </c>
       <c r="B227" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -3255,7 +3247,7 @@
         <v>59</v>
       </c>
       <c r="B228" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -3266,7 +3258,7 @@
         <v>59</v>
       </c>
       <c r="B229" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -3277,7 +3269,7 @@
         <v>60</v>
       </c>
       <c r="B230" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -3288,7 +3280,7 @@
         <v>60</v>
       </c>
       <c r="B231" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -3299,7 +3291,7 @@
         <v>60</v>
       </c>
       <c r="B232" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -3310,7 +3302,7 @@
         <v>60</v>
       </c>
       <c r="B233" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -3321,7 +3313,7 @@
         <v>61</v>
       </c>
       <c r="B234" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -3332,7 +3324,7 @@
         <v>61</v>
       </c>
       <c r="B235" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -3343,7 +3335,7 @@
         <v>61</v>
       </c>
       <c r="B236" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -3354,7 +3346,7 @@
         <v>61</v>
       </c>
       <c r="B237" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -3365,7 +3357,7 @@
         <v>62</v>
       </c>
       <c r="B238" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -3376,7 +3368,7 @@
         <v>62</v>
       </c>
       <c r="B239" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -3387,7 +3379,7 @@
         <v>62</v>
       </c>
       <c r="B240" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -3398,7 +3390,7 @@
         <v>62</v>
       </c>
       <c r="B241" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -3409,7 +3401,7 @@
         <v>63</v>
       </c>
       <c r="B242" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -3420,7 +3412,7 @@
         <v>63</v>
       </c>
       <c r="B243" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -3431,7 +3423,7 @@
         <v>63</v>
       </c>
       <c r="B244" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -3442,7 +3434,7 @@
         <v>63</v>
       </c>
       <c r="B245" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -3453,7 +3445,7 @@
         <v>64</v>
       </c>
       <c r="B246" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -3464,7 +3456,7 @@
         <v>64</v>
       </c>
       <c r="B247" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -3475,7 +3467,7 @@
         <v>64</v>
       </c>
       <c r="B248" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -3486,7 +3478,7 @@
         <v>64</v>
       </c>
       <c r="B249" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -3497,7 +3489,7 @@
         <v>65</v>
       </c>
       <c r="B250" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -3508,7 +3500,7 @@
         <v>65</v>
       </c>
       <c r="B251" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -3519,7 +3511,7 @@
         <v>65</v>
       </c>
       <c r="B252" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -3530,7 +3522,7 @@
         <v>65</v>
       </c>
       <c r="B253" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -3541,7 +3533,7 @@
         <v>66</v>
       </c>
       <c r="B254" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -3552,7 +3544,7 @@
         <v>66</v>
       </c>
       <c r="B255" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -3563,7 +3555,7 @@
         <v>66</v>
       </c>
       <c r="B256" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -3574,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="B257" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -3585,7 +3577,7 @@
         <v>67</v>
       </c>
       <c r="B258" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -3596,7 +3588,7 @@
         <v>67</v>
       </c>
       <c r="B259" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -3607,7 +3599,7 @@
         <v>67</v>
       </c>
       <c r="B260" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -3618,7 +3610,7 @@
         <v>67</v>
       </c>
       <c r="B261" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -3629,7 +3621,7 @@
         <v>68</v>
       </c>
       <c r="B262" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -3640,7 +3632,7 @@
         <v>68</v>
       </c>
       <c r="B263" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -3651,7 +3643,7 @@
         <v>68</v>
       </c>
       <c r="B264" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -3662,7 +3654,7 @@
         <v>68</v>
       </c>
       <c r="B265" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -3673,7 +3665,7 @@
         <v>69</v>
       </c>
       <c r="B266" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -3684,7 +3676,7 @@
         <v>69</v>
       </c>
       <c r="B267" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -3695,7 +3687,7 @@
         <v>69</v>
       </c>
       <c r="B268" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -3706,7 +3698,7 @@
         <v>69</v>
       </c>
       <c r="B269" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -3717,7 +3709,7 @@
         <v>70</v>
       </c>
       <c r="B270" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -3728,7 +3720,7 @@
         <v>70</v>
       </c>
       <c r="B271" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -3739,7 +3731,7 @@
         <v>70</v>
       </c>
       <c r="B272" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -3750,7 +3742,7 @@
         <v>70</v>
       </c>
       <c r="B273" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -3761,7 +3753,7 @@
         <v>71</v>
       </c>
       <c r="B274" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -3772,7 +3764,7 @@
         <v>71</v>
       </c>
       <c r="B275" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -3783,7 +3775,7 @@
         <v>71</v>
       </c>
       <c r="B276" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -3794,7 +3786,7 @@
         <v>71</v>
       </c>
       <c r="B277" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -3805,7 +3797,7 @@
         <v>72</v>
       </c>
       <c r="B278" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -3816,7 +3808,7 @@
         <v>72</v>
       </c>
       <c r="B279" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -3827,7 +3819,7 @@
         <v>72</v>
       </c>
       <c r="B280" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -3838,7 +3830,7 @@
         <v>72</v>
       </c>
       <c r="B281" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -3849,7 +3841,7 @@
         <v>73</v>
       </c>
       <c r="B282" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -3860,7 +3852,7 @@
         <v>73</v>
       </c>
       <c r="B283" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -3871,7 +3863,7 @@
         <v>73</v>
       </c>
       <c r="B284" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -3882,7 +3874,7 @@
         <v>73</v>
       </c>
       <c r="B285" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -3893,7 +3885,7 @@
         <v>74</v>
       </c>
       <c r="B286" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -3904,7 +3896,7 @@
         <v>74</v>
       </c>
       <c r="B287" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -3915,7 +3907,7 @@
         <v>74</v>
       </c>
       <c r="B288" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -3926,7 +3918,7 @@
         <v>74</v>
       </c>
       <c r="B289" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -3937,7 +3929,7 @@
         <v>75</v>
       </c>
       <c r="B290" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -3948,7 +3940,7 @@
         <v>75</v>
       </c>
       <c r="B291" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -3959,7 +3951,7 @@
         <v>75</v>
       </c>
       <c r="B292" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -3970,7 +3962,7 @@
         <v>75</v>
       </c>
       <c r="B293" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -3981,7 +3973,7 @@
         <v>76</v>
       </c>
       <c r="B294" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -3992,7 +3984,7 @@
         <v>76</v>
       </c>
       <c r="B295" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -4003,7 +3995,7 @@
         <v>76</v>
       </c>
       <c r="B296" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -4014,7 +4006,7 @@
         <v>76</v>
       </c>
       <c r="B297" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -4025,7 +4017,7 @@
         <v>77</v>
       </c>
       <c r="B298" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -4036,7 +4028,7 @@
         <v>77</v>
       </c>
       <c r="B299" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -4047,7 +4039,7 @@
         <v>77</v>
       </c>
       <c r="B300" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -4058,7 +4050,7 @@
         <v>77</v>
       </c>
       <c r="B301" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -4069,7 +4061,7 @@
         <v>78</v>
       </c>
       <c r="B302" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -4080,7 +4072,7 @@
         <v>78</v>
       </c>
       <c r="B303" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -4091,7 +4083,7 @@
         <v>78</v>
       </c>
       <c r="B304" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -4102,7 +4094,7 @@
         <v>78</v>
       </c>
       <c r="B305" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -4113,7 +4105,7 @@
         <v>79</v>
       </c>
       <c r="B306" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -4124,7 +4116,7 @@
         <v>79</v>
       </c>
       <c r="B307" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -4135,7 +4127,7 @@
         <v>79</v>
       </c>
       <c r="B308" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -4146,7 +4138,7 @@
         <v>79</v>
       </c>
       <c r="B309" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -4157,7 +4149,7 @@
         <v>80</v>
       </c>
       <c r="B310" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -4168,7 +4160,7 @@
         <v>80</v>
       </c>
       <c r="B311" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -4179,7 +4171,7 @@
         <v>80</v>
       </c>
       <c r="B312" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -4190,7 +4182,7 @@
         <v>80</v>
       </c>
       <c r="B313" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -4201,7 +4193,7 @@
         <v>81</v>
       </c>
       <c r="B314" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -4212,7 +4204,7 @@
         <v>81</v>
       </c>
       <c r="B315" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -4223,7 +4215,7 @@
         <v>81</v>
       </c>
       <c r="B316" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -4234,7 +4226,7 @@
         <v>81</v>
       </c>
       <c r="B317" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -4245,7 +4237,7 @@
         <v>82</v>
       </c>
       <c r="B318" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -4256,7 +4248,7 @@
         <v>82</v>
       </c>
       <c r="B319" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -4267,7 +4259,7 @@
         <v>82</v>
       </c>
       <c r="B320" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -4278,7 +4270,7 @@
         <v>82</v>
       </c>
       <c r="B321" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -4289,7 +4281,7 @@
         <v>83</v>
       </c>
       <c r="B322" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -4300,7 +4292,7 @@
         <v>83</v>
       </c>
       <c r="B323" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -4311,7 +4303,7 @@
         <v>83</v>
       </c>
       <c r="B324" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -4322,7 +4314,7 @@
         <v>83</v>
       </c>
       <c r="B325" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -4333,7 +4325,7 @@
         <v>84</v>
       </c>
       <c r="B326" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -4344,7 +4336,7 @@
         <v>84</v>
       </c>
       <c r="B327" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -4355,7 +4347,7 @@
         <v>84</v>
       </c>
       <c r="B328" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -4366,7 +4358,7 @@
         <v>84</v>
       </c>
       <c r="B329" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -4377,7 +4369,7 @@
         <v>85</v>
       </c>
       <c r="B330" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -4388,7 +4380,7 @@
         <v>85</v>
       </c>
       <c r="B331" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -4399,7 +4391,7 @@
         <v>85</v>
       </c>
       <c r="B332" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -4410,7 +4402,7 @@
         <v>85</v>
       </c>
       <c r="B333" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -4421,7 +4413,7 @@
         <v>86</v>
       </c>
       <c r="B334" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -4432,7 +4424,7 @@
         <v>86</v>
       </c>
       <c r="B335" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -4443,7 +4435,7 @@
         <v>86</v>
       </c>
       <c r="B336" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -4454,7 +4446,7 @@
         <v>86</v>
       </c>
       <c r="B337" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -4465,7 +4457,7 @@
         <v>87</v>
       </c>
       <c r="B338" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -4476,7 +4468,7 @@
         <v>87</v>
       </c>
       <c r="B339" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -4487,7 +4479,7 @@
         <v>87</v>
       </c>
       <c r="B340" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -4498,7 +4490,7 @@
         <v>87</v>
       </c>
       <c r="B341" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -4509,7 +4501,7 @@
         <v>88</v>
       </c>
       <c r="B342" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -4520,7 +4512,7 @@
         <v>88</v>
       </c>
       <c r="B343" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -4531,7 +4523,7 @@
         <v>88</v>
       </c>
       <c r="B344" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -4542,7 +4534,7 @@
         <v>88</v>
       </c>
       <c r="B345" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -4553,7 +4545,7 @@
         <v>89</v>
       </c>
       <c r="B346" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -4564,7 +4556,7 @@
         <v>89</v>
       </c>
       <c r="B347" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -4575,7 +4567,7 @@
         <v>89</v>
       </c>
       <c r="B348" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -4586,7 +4578,7 @@
         <v>89</v>
       </c>
       <c r="B349" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -4597,7 +4589,7 @@
         <v>90</v>
       </c>
       <c r="B350" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -4608,7 +4600,7 @@
         <v>90</v>
       </c>
       <c r="B351" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -4619,7 +4611,7 @@
         <v>90</v>
       </c>
       <c r="B352" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -4630,7 +4622,7 @@
         <v>90</v>
       </c>
       <c r="B353" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -4641,7 +4633,7 @@
         <v>91</v>
       </c>
       <c r="B354" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -4652,7 +4644,7 @@
         <v>91</v>
       </c>
       <c r="B355" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -4663,7 +4655,7 @@
         <v>91</v>
       </c>
       <c r="B356" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -4674,7 +4666,7 @@
         <v>91</v>
       </c>
       <c r="B357" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -4685,7 +4677,7 @@
         <v>92</v>
       </c>
       <c r="B358" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -4696,7 +4688,7 @@
         <v>92</v>
       </c>
       <c r="B359" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -4707,7 +4699,7 @@
         <v>92</v>
       </c>
       <c r="B360" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -4718,7 +4710,7 @@
         <v>92</v>
       </c>
       <c r="B361" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -4729,7 +4721,7 @@
         <v>93</v>
       </c>
       <c r="B362" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -4740,7 +4732,7 @@
         <v>93</v>
       </c>
       <c r="B363" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -4751,7 +4743,7 @@
         <v>93</v>
       </c>
       <c r="B364" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -4762,7 +4754,7 @@
         <v>93</v>
       </c>
       <c r="B365" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -4773,7 +4765,7 @@
         <v>94</v>
       </c>
       <c r="B366" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -4784,7 +4776,7 @@
         <v>94</v>
       </c>
       <c r="B367" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -4795,7 +4787,7 @@
         <v>94</v>
       </c>
       <c r="B368" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -4806,7 +4798,7 @@
         <v>94</v>
       </c>
       <c r="B369" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -4817,7 +4809,7 @@
         <v>95</v>
       </c>
       <c r="B370" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -4828,7 +4820,7 @@
         <v>95</v>
       </c>
       <c r="B371" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -4839,7 +4831,7 @@
         <v>95</v>
       </c>
       <c r="B372" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -4850,7 +4842,7 @@
         <v>95</v>
       </c>
       <c r="B373" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -4861,7 +4853,7 @@
         <v>96</v>
       </c>
       <c r="B374" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -4872,7 +4864,7 @@
         <v>96</v>
       </c>
       <c r="B375" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -4883,7 +4875,7 @@
         <v>96</v>
       </c>
       <c r="B376" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -4894,97 +4886,9 @@
         <v>96</v>
       </c>
       <c r="B377" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
-        <v>97</v>
-      </c>
-      <c r="B378" t="s">
-        <v>99</v>
-      </c>
-      <c r="C378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
-        <v>97</v>
-      </c>
-      <c r="B379" t="s">
-        <v>100</v>
-      </c>
-      <c r="C379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
-        <v>97</v>
-      </c>
-      <c r="B380" t="s">
-        <v>102</v>
-      </c>
-      <c r="C380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
-        <v>97</v>
-      </c>
-      <c r="B381" t="s">
-        <v>101</v>
-      </c>
-      <c r="C381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
-        <v>98</v>
-      </c>
-      <c r="B382" t="s">
-        <v>99</v>
-      </c>
-      <c r="C382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
-        <v>98</v>
-      </c>
-      <c r="B383" t="s">
-        <v>100</v>
-      </c>
-      <c r="C383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
-        <v>98</v>
-      </c>
-      <c r="B384" t="s">
-        <v>102</v>
-      </c>
-      <c r="C384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
-        <v>98</v>
-      </c>
-      <c r="B385" t="s">
-        <v>101</v>
-      </c>
-      <c r="C385">
         <v>0</v>
       </c>
     </row>
